--- a/results/confront_files/metaphor_confront.xlsx
+++ b/results/confront_files/metaphor_confront.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrac\Documents\Uni\Embeddings\metaphor_experiment\results\confront files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrac\Documents\Uni\Embeddings\metaphor_experiment\results\confront_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A954D3-49A2-49D8-97F5-A3DE888F1E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46416F19-8F78-439A-A26F-5D99391D3A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="1140" windowWidth="18950" windowHeight="8920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="metaphor_confront" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,7 +28,49 @@
     <t>mean_similarity</t>
   </si>
   <si>
-    <t>4 failure is death</t>
+    <t>mean_baseline_savedBL</t>
+  </si>
+  <si>
+    <t>mean_baseline_mixedBL</t>
+  </si>
+  <si>
+    <t>mean_test_stat_savedBL</t>
+  </si>
+  <si>
+    <t>mean_test_stat_mixedBL</t>
+  </si>
+  <si>
+    <t>mean_p_value_savedBL</t>
+  </si>
+  <si>
+    <t>mean_p_value_mixedBL</t>
+  </si>
+  <si>
+    <t>amount_pos_sign_savedBL</t>
+  </si>
+  <si>
+    <t>amount_pos_sign_mixedBL</t>
+  </si>
+  <si>
+    <t>amount_pos_insign_savedBL</t>
+  </si>
+  <si>
+    <t>amount_pos_insign_mixedBL</t>
+  </si>
+  <si>
+    <t>amount_neg_sign_savedBL</t>
+  </si>
+  <si>
+    <t>amount_neg_sign_mixedBL</t>
+  </si>
+  <si>
+    <t>amount_neg_insign_savedBL</t>
+  </si>
+  <si>
+    <t>amount_neg_insign_mixedBL</t>
+  </si>
+  <si>
+    <t>5 success is life</t>
   </si>
   <si>
     <t>3 life is journey</t>
@@ -50,19 +79,16 @@
     <t>7 affection is warmth</t>
   </si>
   <si>
-    <t>9 good is up</t>
+    <t>8 money is liquid</t>
   </si>
   <si>
-    <t>8 money is liquid</t>
+    <t>4 failure is death</t>
   </si>
   <si>
     <t>10 bad is down</t>
   </si>
   <si>
-    <t>2 active is life</t>
-  </si>
-  <si>
-    <t>5 success is life</t>
+    <t>9 good is up</t>
   </si>
   <si>
     <t>6 perceiving is eating</t>
@@ -71,52 +97,13 @@
     <t>1 importance is size</t>
   </si>
   <si>
-    <t>mean_baseline_mixedBL</t>
-  </si>
-  <si>
-    <t>mean_test_stat_mixedBL</t>
-  </si>
-  <si>
-    <t>mean_p_value_mixedBL</t>
-  </si>
-  <si>
-    <t>amount_pos_sign_mixedBL</t>
-  </si>
-  <si>
-    <t>amount_pos_insign_mixedBL</t>
-  </si>
-  <si>
-    <t>amount_neg_sign_mixedBL</t>
-  </si>
-  <si>
-    <t>amount_neg_insign_mixedBL</t>
-  </si>
-  <si>
-    <t>mean_baseline_savedBL</t>
-  </si>
-  <si>
-    <t>mean_test_stat_savedBL</t>
-  </si>
-  <si>
-    <t>mean_p_value_savedBL</t>
-  </si>
-  <si>
-    <t>amount_pos_sign_savedBL</t>
-  </si>
-  <si>
-    <t>amount_pos_insign_savedBL</t>
-  </si>
-  <si>
-    <t>amount_neg_sign_savedBL</t>
-  </si>
-  <si>
-    <t>amount_neg_insign_savedBL</t>
+    <t>2 active is life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,7 +696,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="84">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -735,6 +722,46 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -759,6 +786,46 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -783,6 +850,616 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -877,336 +1554,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1232,28 +1579,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:P11" totalsRowShown="0">
-  <autoFilter ref="A1:P11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:P11" totalsRowShown="0">
+  <autoFilter ref="A1:P11"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="metaphor"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mean_similarity"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_baseline_mixedBL" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_savedBL" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_test_stat_mixedBL" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_savedBL" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_p_value_mixedBL" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_savedBL" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="amount_pos_sign_mixedBL" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_savedBL" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_insign_mixedBL" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_savedBL" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_neg_sign_mixedBL" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_savedBL" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="amount_neg_insign_mixedBL" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="amount_neg_insign_savedBL" dataDxfId="0"/>
+    <tableColumn id="1" name="metaphor"/>
+    <tableColumn id="2" name="mean_similarity"/>
+    <tableColumn id="3" name="mean_baseline_savedBL" dataDxfId="82"/>
+    <tableColumn id="4" name="mean_baseline_mixedBL" dataDxfId="81"/>
+    <tableColumn id="5" name="mean_test_stat_savedBL" dataDxfId="80"/>
+    <tableColumn id="6" name="mean_test_stat_mixedBL" dataDxfId="79"/>
+    <tableColumn id="7" name="mean_p_value_savedBL" dataDxfId="13"/>
+    <tableColumn id="8" name="mean_p_value_mixedBL" dataDxfId="12"/>
+    <tableColumn id="9" name="amount_pos_sign_savedBL" dataDxfId="78"/>
+    <tableColumn id="10" name="amount_pos_sign_mixedBL" dataDxfId="77"/>
+    <tableColumn id="11" name="amount_pos_insign_savedBL" dataDxfId="76"/>
+    <tableColumn id="12" name="amount_pos_insign_mixedBL" dataDxfId="75"/>
+    <tableColumn id="13" name="amount_neg_sign_savedBL" dataDxfId="7"/>
+    <tableColumn id="14" name="amount_neg_sign_mixedBL" dataDxfId="6"/>
+    <tableColumn id="15" name="amount_neg_insign_savedBL" dataDxfId="1"/>
+    <tableColumn id="16" name="amount_neg_insign_mixedBL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1548,38 +1895,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="21.1796875" customWidth="1"/>
-    <col min="8" max="8" width="20.90625" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" customWidth="1"/>
-    <col min="11" max="11" width="25.26953125" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="23.7265625" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" customWidth="1"/>
-    <col min="15" max="15" width="25.26953125" customWidth="1"/>
-    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" customWidth="1"/>
+    <col min="9" max="9" width="25.36328125" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" customWidth="1"/>
+    <col min="11" max="11" width="26.90625" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" customWidth="1"/>
+    <col min="13" max="13" width="25.36328125" customWidth="1"/>
+    <col min="14" max="14" width="25.6328125" customWidth="1"/>
+    <col min="15" max="15" width="26.90625" customWidth="1"/>
+    <col min="16" max="16" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1590,193 +1936,193 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0.23763538607985199</v>
+        <v>-0.33487668282836103</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23276388532153899</v>
+        <v>-0.27502514225179803</v>
       </c>
       <c r="D2" s="2">
-        <v>0.26230304949594901</v>
+        <v>-0.27551187926361098</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.79049097383933398</v>
+        <v>-3.7580648492773601</v>
       </c>
       <c r="F2" s="2">
-        <v>-3.29441008794171</v>
+        <v>-3.7900411414454398</v>
       </c>
       <c r="G2" s="1">
-        <v>0.11937380052907801</v>
+        <v>1.8367056128782599E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>2.47916376986408E-2</v>
+        <v>2.02669087444502E-2</v>
       </c>
       <c r="I2" s="1">
         <v>17</v>
       </c>
       <c r="J2" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0.212594119451566</v>
+        <v>-0.38950402505148302</v>
       </c>
       <c r="C3" s="3">
-        <v>0.234683527218666</v>
+        <v>-0.26098433459623799</v>
       </c>
       <c r="D3" s="4">
-        <v>0.26546656366631899</v>
+        <v>-0.260713996108278</v>
       </c>
       <c r="E3" s="3">
-        <v>-4.7291785282365204</v>
+        <v>-9.4998354635253701</v>
       </c>
       <c r="F3" s="4">
-        <v>-7.71293842303721</v>
+        <v>-9.5783257369617107</v>
       </c>
       <c r="G3" s="3">
-        <v>4.5573303950851199E-2</v>
+        <v>5.8050186266330199E-4</v>
       </c>
       <c r="H3" s="4">
-        <v>2.5862431865908302E-2</v>
+        <v>8.48810116861981E-4</v>
       </c>
       <c r="I3" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N3" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>0.26031702346393198</v>
+        <v>-0.30828856282545702</v>
       </c>
       <c r="C4" s="3">
-        <v>0.27247645304460599</v>
+        <v>-0.21674198227834099</v>
       </c>
       <c r="D4" s="4">
-        <v>0.29824036555716399</v>
+        <v>-0.21514424002605401</v>
       </c>
       <c r="E4" s="3">
-        <v>-1.4618466001306201</v>
+        <v>-3.57428327186215</v>
       </c>
       <c r="F4" s="4">
-        <v>-3.4428130320355299</v>
+        <v>-3.7777810468244799</v>
       </c>
       <c r="G4" s="3">
-        <v>4.7507700003280397E-2</v>
+        <v>2.5759691993867601E-2</v>
       </c>
       <c r="H4" s="4">
-        <v>4.3655547240142499E-2</v>
+        <v>2.7006310101626699E-2</v>
       </c>
       <c r="I4" s="3">
         <v>20</v>
       </c>
       <c r="J4" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>38</v>
+      </c>
+      <c r="N4" s="4">
+        <v>38</v>
+      </c>
+      <c r="O4" s="3">
         <v>2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>8</v>
-      </c>
-      <c r="M4" s="3">
-        <v>34</v>
-      </c>
-      <c r="N4" s="4">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
       </c>
       <c r="P4" s="4">
         <v>2</v>
@@ -1784,228 +2130,228 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>0.233779688373005</v>
+        <v>-0.32443614929154702</v>
       </c>
       <c r="C5" s="3">
-        <v>0.24693727113518499</v>
+        <v>-0.24031248644460501</v>
       </c>
       <c r="D5" s="4">
-        <v>0.27597224593479203</v>
+        <v>-0.23967394053114599</v>
       </c>
       <c r="E5" s="3">
-        <v>-2.5247769336693602</v>
+        <v>-4.6217772403056099</v>
       </c>
       <c r="F5" s="4">
-        <v>-4.7950882141179596</v>
+        <v>-4.7502250106278101</v>
       </c>
       <c r="G5" s="3">
-        <v>0.10553513394515</v>
+        <v>1.8021507753288001E-2</v>
       </c>
       <c r="H5" s="4">
-        <v>3.7068257653836201E-2</v>
+        <v>2.0818900776624499E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="3">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N5" s="4">
         <v>47</v>
       </c>
       <c r="O5" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>-0.296759764060053</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-0.27298496447665699</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-0.27197936398477301</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.10701343189125501</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-5.9473134269749602E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.8122786662291101E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.2783117770827402E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
         <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.25951996506620101</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.237745657352391</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.26571030112479999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.1652329647397401</v>
-      </c>
-      <c r="F6" s="4">
-        <v>-8.1527705375815194E-3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.111713779996507</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5.4933151168080799E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>29</v>
-      </c>
-      <c r="J6" s="4">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10</v>
       </c>
       <c r="L6" s="4">
         <v>2</v>
       </c>
       <c r="M6" s="3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N6" s="4">
         <v>35</v>
       </c>
       <c r="O6" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.23474526859877401</v>
+        <v>-0.33222829018563499</v>
       </c>
       <c r="C7" s="3">
-        <v>0.238686448293838</v>
+        <v>-0.25234686262911799</v>
       </c>
       <c r="D7" s="4">
-        <v>0.26978781070584001</v>
+        <v>-0.25070804862693102</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.94028084083744001</v>
+        <v>-3.49142139591725</v>
       </c>
       <c r="F7" s="4">
-        <v>-3.5596370432946598</v>
+        <v>-3.6912169590163799</v>
       </c>
       <c r="G7" s="3">
-        <v>9.61062194219717E-2</v>
+        <v>9.11338536976866E-3</v>
       </c>
       <c r="H7" s="4">
-        <v>2.0650305353640399E-2</v>
+        <v>9.0331483055203794E-3</v>
       </c>
       <c r="I7" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J7" s="4">
         <v>16</v>
       </c>
       <c r="K7" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="3">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N7" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>0.20636661957088401</v>
+        <v>-0.40756952719290301</v>
       </c>
       <c r="C8" s="3">
-        <v>0.23829823182912499</v>
+        <v>-0.27805039105671298</v>
       </c>
       <c r="D8" s="4">
-        <v>0.26713401320079799</v>
+        <v>-0.27531430195768403</v>
       </c>
       <c r="E8" s="3">
-        <v>-7.3635496900611903</v>
+        <v>-11.179825986572499</v>
       </c>
       <c r="F8" s="4">
-        <v>-10.405955309897699</v>
+        <v>-11.5097697798689</v>
       </c>
       <c r="G8" s="3">
-        <v>5.7568941943636598E-2</v>
+        <v>5.6858374039434098E-2</v>
       </c>
       <c r="H8" s="4">
-        <v>5.9631140535075802E-2</v>
+        <v>5.7864523989964001E-2</v>
       </c>
       <c r="I8" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J8" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3">
         <v>3</v>
       </c>
       <c r="L8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N8" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O8" s="3">
         <v>4</v>
       </c>
       <c r="P8" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.21240746765246499</v>
+        <v>-0.38400302899796501</v>
       </c>
       <c r="C9" s="3">
-        <v>0.23709980258836799</v>
+        <v>-0.26955684920158401</v>
       </c>
       <c r="D9" s="4">
-        <v>0.267440531690818</v>
+        <v>-0.26712289752045398</v>
       </c>
       <c r="E9" s="3">
-        <v>-4.8045983099468801</v>
+        <v>-7.99804446436859</v>
       </c>
       <c r="F9" s="4">
-        <v>-7.5439266071739599</v>
+        <v>-8.2368931064552307</v>
       </c>
       <c r="G9" s="3">
-        <v>0.145720937332037</v>
+        <v>3.5895814508294502E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>2.55655415750442E-2</v>
+        <v>3.0451615608861601E-2</v>
       </c>
       <c r="I9" s="3">
         <v>12</v>
@@ -2014,101 +2360,101 @@
         <v>12</v>
       </c>
       <c r="K9" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N9" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.184513733159095</v>
+        <v>-0.43779917498316601</v>
       </c>
       <c r="C10" s="3">
-        <v>0.23247005522165501</v>
+        <v>-0.28277257172146097</v>
       </c>
       <c r="D10" s="4">
-        <v>0.26184565751641398</v>
+        <v>-0.281683701395678</v>
       </c>
       <c r="E10" s="3">
-        <v>-8.9760017539721293</v>
+        <v>-13.7079420158378</v>
       </c>
       <c r="F10" s="4">
-        <v>-12.4802784267628</v>
+        <v>-13.9144064845848</v>
       </c>
       <c r="G10" s="3">
-        <v>1.71632189545055E-2</v>
+        <v>2.9033234901923301E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>1.5037738731429001E-2</v>
+        <v>2.7026608210771401E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10" s="4">
         <v>10</v>
       </c>
       <c r="K10" s="3">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4">
         <v>3</v>
       </c>
-      <c r="L10" s="4">
-        <v>2</v>
-      </c>
       <c r="M10" s="3">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N10" s="4">
         <v>50</v>
       </c>
       <c r="O10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>0.211566574240278</v>
+        <v>-0.37499967366376202</v>
       </c>
       <c r="C11" s="5">
-        <v>0.24311055650868699</v>
+        <v>-0.25593927036193997</v>
       </c>
       <c r="D11" s="6">
-        <v>0.27104561394725202</v>
+        <v>-0.25550278386297798</v>
       </c>
       <c r="E11" s="5">
-        <v>-5.5315728874161803</v>
+        <v>-8.4895642357267693</v>
       </c>
       <c r="F11" s="6">
-        <v>-8.1547180744928802</v>
+        <v>-8.5825447340095096</v>
       </c>
       <c r="G11" s="5">
-        <v>8.4695103564496596E-2</v>
+        <v>4.8846335613431602E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>3.39951525360732E-2</v>
+        <v>4.4566266791685398E-2</v>
       </c>
       <c r="I11" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" s="6">
         <v>10</v>
@@ -2117,16 +2463,16 @@
         <v>4</v>
       </c>
       <c r="L11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="5">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N11" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P11" s="6">
         <v>2</v>
@@ -2134,77 +2480,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="top10" dxfId="47" priority="54" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="46" priority="53" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="29" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="top10" dxfId="45" priority="51" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="44" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="27" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="top10" dxfId="43" priority="49" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="42" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="50" priority="25" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="49" priority="26" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="top10" dxfId="48" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="24" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="top10" dxfId="46" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="22" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="top10" dxfId="44" priority="19" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="20" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J11">
+    <cfRule type="top10" dxfId="42" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="18" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="top10" dxfId="40" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="16" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L11">
+    <cfRule type="top10" dxfId="38" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="top10" dxfId="41" priority="36" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="40" priority="35" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="top10" dxfId="39" priority="33" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="38" priority="34" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="top10" dxfId="37" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="36" priority="24" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F11">
-    <cfRule type="top10" dxfId="35" priority="21" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="34" priority="22" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I11">
-    <cfRule type="top10" dxfId="33" priority="19" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="32" priority="20" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J11">
-    <cfRule type="top10" dxfId="31" priority="17" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="30" priority="18" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="top10" dxfId="29" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="28" priority="16" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="top10" dxfId="27" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="26" priority="14" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K11">
-    <cfRule type="top10" dxfId="25" priority="11" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="24" priority="12" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L11">
-    <cfRule type="top10" dxfId="23" priority="9" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="22" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11">
-    <cfRule type="top10" dxfId="21" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="20" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N11">
-    <cfRule type="top10" dxfId="19" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="18" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O11">
-    <cfRule type="top10" dxfId="17" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="16" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P11">
-    <cfRule type="top10" dxfId="15" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="14" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/results/confront_files/metaphor_confront.xlsx
+++ b/results/confront_files/metaphor_confront.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrac\Documents\Uni\Embeddings\metaphor_experiment\results\confront_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46416F19-8F78-439A-A26F-5D99391D3A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7570F483-66CE-4A0E-AFD7-1D70630CB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metaphor_confront" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -696,7 +696,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="44">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -722,46 +722,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -786,46 +746,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -850,616 +770,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -1554,6 +864,296 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1579,28 +1179,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:P11" totalsRowShown="0">
-  <autoFilter ref="A1:P11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:P11" totalsRowShown="0">
+  <autoFilter ref="A1:P11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="metaphor"/>
-    <tableColumn id="2" name="mean_similarity"/>
-    <tableColumn id="3" name="mean_baseline_savedBL" dataDxfId="82"/>
-    <tableColumn id="4" name="mean_baseline_mixedBL" dataDxfId="81"/>
-    <tableColumn id="5" name="mean_test_stat_savedBL" dataDxfId="80"/>
-    <tableColumn id="6" name="mean_test_stat_mixedBL" dataDxfId="79"/>
-    <tableColumn id="7" name="mean_p_value_savedBL" dataDxfId="13"/>
-    <tableColumn id="8" name="mean_p_value_mixedBL" dataDxfId="12"/>
-    <tableColumn id="9" name="amount_pos_sign_savedBL" dataDxfId="78"/>
-    <tableColumn id="10" name="amount_pos_sign_mixedBL" dataDxfId="77"/>
-    <tableColumn id="11" name="amount_pos_insign_savedBL" dataDxfId="76"/>
-    <tableColumn id="12" name="amount_pos_insign_mixedBL" dataDxfId="75"/>
-    <tableColumn id="13" name="amount_neg_sign_savedBL" dataDxfId="7"/>
-    <tableColumn id="14" name="amount_neg_sign_mixedBL" dataDxfId="6"/>
-    <tableColumn id="15" name="amount_neg_insign_savedBL" dataDxfId="1"/>
-    <tableColumn id="16" name="amount_neg_insign_mixedBL" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="metaphor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="mean_similarity"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="mean_baseline_savedBL" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="mean_baseline_mixedBL" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="mean_test_stat_savedBL" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="mean_test_stat_mixedBL" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="mean_p_value_savedBL" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="mean_p_value_mixedBL" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="amount_pos_sign_savedBL" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="amount_pos_sign_mixedBL" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="amount_pos_insign_savedBL" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="amount_pos_insign_mixedBL" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="amount_neg_sign_savedBL" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="amount_neg_sign_mixedBL" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="amount_neg_insign_savedBL" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="amount_neg_insign_mixedBL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1902,7 +1502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2480,64 +2080,64 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="top10" dxfId="54" priority="30" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="53" priority="29" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="30" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="29" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="top10" dxfId="52" priority="27" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="51" priority="28" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="27" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="28" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="top10" dxfId="50" priority="25" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="49" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="25" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="top10" dxfId="48" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="47" priority="24" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="24" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="top10" dxfId="46" priority="21" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="45" priority="22" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="21" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="22" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I11">
-    <cfRule type="top10" dxfId="44" priority="19" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="43" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="19" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J11">
-    <cfRule type="top10" dxfId="42" priority="17" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="41" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="top10" dxfId="40" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="39" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L11">
-    <cfRule type="top10" dxfId="38" priority="13" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="37" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
-    <cfRule type="top10" dxfId="16" priority="12" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="17" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="top10" dxfId="14" priority="9" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="15" priority="10" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="9" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="10" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M11">
-    <cfRule type="top10" dxfId="10" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="8" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N11">
-    <cfRule type="top10" dxfId="9" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O11">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P11">
-    <cfRule type="top10" dxfId="3" priority="1" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
